--- a/artfynd/A 64062-2020.xlsx
+++ b/artfynd/A 64062-2020.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87399184</v>
+        <v>87399297</v>
       </c>
       <c r="B4" t="n">
-        <v>96252</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,31 +921,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223591</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -953,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518353.1755671475</v>
+        <v>518535.8757363771</v>
       </c>
       <c r="R4" t="n">
-        <v>6965111.145664147</v>
+        <v>6965192.190086277</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1026,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87399297</v>
+        <v>87397949</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>96239</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,30 +1037,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>504</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518535.8757363771</v>
+        <v>518333.776086097</v>
       </c>
       <c r="R5" t="n">
-        <v>6965192.190086277</v>
+        <v>6965141.215701581</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87399141</v>
+        <v>101930649</v>
       </c>
       <c r="B6" t="n">
-        <v>96254</v>
+        <v>96239</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1158,33 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>223597</v>
+        <v>504</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>Cypripedium calceolus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1182,13 +1194,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518219.8273314742</v>
+        <v>518336.0731258075</v>
       </c>
       <c r="R6" t="n">
-        <v>6965046.844427143</v>
+        <v>6965139.856789312</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1212,7 +1224,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1222,12 +1234,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>4 florala.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,22 +1260,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars Grönvik</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars Grönvik</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87399162</v>
+        <v>87399184</v>
       </c>
       <c r="B7" t="n">
-        <v>96356</v>
+        <v>96252</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1288,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>223591</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1316,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518328.181063132</v>
+        <v>518353.1755671475</v>
       </c>
       <c r="R7" t="n">
-        <v>6965077.169283876</v>
+        <v>6965111.145664147</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1372,10 +1389,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87399166</v>
+        <v>87399141</v>
       </c>
       <c r="B8" t="n">
-        <v>96356</v>
+        <v>96254</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,23 +1405,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219847</v>
+        <v>223597</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1416,10 +1429,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518334.9957081943</v>
+        <v>518219.8273314742</v>
       </c>
       <c r="R8" t="n">
-        <v>6965086.809690522</v>
+        <v>6965046.844427143</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1489,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87399150</v>
+        <v>87399162</v>
       </c>
       <c r="B9" t="n">
-        <v>97308</v>
+        <v>96356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,21 +1518,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222467</v>
+        <v>219847</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gräsull</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Eriophorum latifolium</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hoppe</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1546,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518292.9341352677</v>
+        <v>518328.181063132</v>
       </c>
       <c r="R9" t="n">
-        <v>6965075.143680119</v>
+        <v>6965077.169283876</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1606,10 +1619,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87399124</v>
+        <v>87399166</v>
       </c>
       <c r="B10" t="n">
-        <v>5135</v>
+        <v>96356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,28 +1635,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>105930</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1651,10 +1663,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518211.1325157742</v>
+        <v>518334.9957081943</v>
       </c>
       <c r="R10" t="n">
-        <v>6965045.881666865</v>
+        <v>6965086.809690522</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1724,10 +1736,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87399156</v>
+        <v>87399150</v>
       </c>
       <c r="B11" t="n">
-        <v>96254</v>
+        <v>97308</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,19 +1752,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>223597</v>
+        <v>222467</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Gräsull</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Eriophorum latifolium</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hoppe</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1837,10 +1853,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87397949</v>
+        <v>87399124</v>
       </c>
       <c r="B12" t="n">
-        <v>96239</v>
+        <v>5135</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,27 +1869,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>504</v>
+        <v>105930</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1881,10 +1898,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518333.776086097</v>
+        <v>518211.1325157742</v>
       </c>
       <c r="R12" t="n">
-        <v>6965141.215701581</v>
+        <v>6965045.881666865</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1954,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101930649</v>
+        <v>87399156</v>
       </c>
       <c r="B13" t="n">
-        <v>96239</v>
+        <v>96254</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1970,33 +1987,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>223597</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2006,13 +2011,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518336.0731258075</v>
+        <v>518292.9341352677</v>
       </c>
       <c r="R13" t="n">
-        <v>6965139.856789312</v>
+        <v>6965075.143680119</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2036,7 +2041,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2046,17 +2051,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>4 florala.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2072,12 +2072,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lars Grönvik</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lars Grönvik</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 64062-2020.xlsx
+++ b/artfynd/A 64062-2020.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87399297</v>
+        <v>87399184</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>96252</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,30 +921,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518535.8757363771</v>
+        <v>518353.1755671475</v>
       </c>
       <c r="R4" t="n">
-        <v>6965192.190086277</v>
+        <v>6965111.145664147</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87397949</v>
+        <v>87399297</v>
       </c>
       <c r="B5" t="n">
-        <v>96239</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,31 +1038,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>504</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518333.776086097</v>
+        <v>518535.8757363771</v>
       </c>
       <c r="R5" t="n">
-        <v>6965141.215701581</v>
+        <v>6965192.190086277</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101930649</v>
+        <v>87399141</v>
       </c>
       <c r="B6" t="n">
-        <v>96239</v>
+        <v>96254</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,33 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>504</v>
+        <v>223597</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1194,13 +1182,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518336.0731258075</v>
+        <v>518219.8273314742</v>
       </c>
       <c r="R6" t="n">
-        <v>6965139.856789312</v>
+        <v>6965046.844427143</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1224,7 +1212,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1234,17 +1222,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>4 florala.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1260,22 +1243,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Lars Grönvik</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Lars Grönvik</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87399184</v>
+        <v>87399162</v>
       </c>
       <c r="B7" t="n">
-        <v>96252</v>
+        <v>96356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>223591</v>
+        <v>219847</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1316,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518353.1755671475</v>
+        <v>518328.181063132</v>
       </c>
       <c r="R7" t="n">
-        <v>6965111.145664147</v>
+        <v>6965077.169283876</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1389,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87399141</v>
+        <v>87399166</v>
       </c>
       <c r="B8" t="n">
-        <v>96254</v>
+        <v>96356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,19 +1388,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>223597</v>
+        <v>219847</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Neottia ovata</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) Buff. &amp; Fingerh.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1429,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518219.8273314742</v>
+        <v>518334.9957081943</v>
       </c>
       <c r="R8" t="n">
-        <v>6965046.844427143</v>
+        <v>6965086.809690522</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1502,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87399162</v>
+        <v>87399150</v>
       </c>
       <c r="B9" t="n">
-        <v>96356</v>
+        <v>97308</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1518,21 +1505,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219847</v>
+        <v>222467</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Gräsull</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Eriophorum latifolium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Hoppe</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1546,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518328.181063132</v>
+        <v>518292.9341352677</v>
       </c>
       <c r="R9" t="n">
-        <v>6965077.169283876</v>
+        <v>6965075.143680119</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1619,10 +1606,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87399166</v>
+        <v>87399124</v>
       </c>
       <c r="B10" t="n">
-        <v>96356</v>
+        <v>5135</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1635,27 +1622,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>105930</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1663,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518334.9957081943</v>
+        <v>518211.1325157742</v>
       </c>
       <c r="R10" t="n">
-        <v>6965086.809690522</v>
+        <v>6965045.881666865</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1736,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87399150</v>
+        <v>87399156</v>
       </c>
       <c r="B11" t="n">
-        <v>97308</v>
+        <v>96254</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1752,23 +1740,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222467</v>
+        <v>223597</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gräsull</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Eriophorum latifolium</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Hoppe</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1853,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87399124</v>
+        <v>87397949</v>
       </c>
       <c r="B12" t="n">
-        <v>5135</v>
+        <v>96239</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1869,28 +1853,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>105930</v>
+        <v>504</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1898,10 +1881,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518211.1325157742</v>
+        <v>518333.776086097</v>
       </c>
       <c r="R12" t="n">
-        <v>6965045.881666865</v>
+        <v>6965141.215701581</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1971,10 +1954,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>87399156</v>
+        <v>101930649</v>
       </c>
       <c r="B13" t="n">
-        <v>96254</v>
+        <v>96239</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,21 +1970,33 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>223597</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>Cypripedium calceolus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2011,13 +2006,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518292.9341352677</v>
+        <v>518336.0731258075</v>
       </c>
       <c r="R13" t="n">
-        <v>6965075.143680119</v>
+        <v>6965139.856789312</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2041,7 +2036,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2051,12 +2046,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>4 florala.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2072,12 +2072,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars Grönvik</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars Grönvik</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
